--- a/Lab3 - Timeseries powerflow/results/res_line/loading_percent.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -391,557 +391,782 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.444752582318775</v>
+        <v>59.54231176127781</v>
       </c>
       <c r="C2">
-        <v>1.502285365041776</v>
+        <v>27.89339165630252</v>
       </c>
       <c r="D2">
-        <v>1.226818063528779</v>
+        <v>4.776121687444549</v>
       </c>
       <c r="E2">
-        <v>2.329393614124023</v>
+        <v>3.217035708278636</v>
       </c>
       <c r="F2">
-        <v>0.9106396420449978</v>
+        <v>21.34996688903641</v>
       </c>
       <c r="G2">
-        <v>0.7977181387635254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.7820471345176667</v>
+      </c>
+      <c r="H2">
+        <v>0.449540463525849</v>
+      </c>
+      <c r="I2">
+        <v>6.298172662126522</v>
+      </c>
+      <c r="J2">
+        <v>1.149944146873034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.431390794895135</v>
+        <v>55.77365438420539</v>
       </c>
       <c r="C3">
-        <v>1.496133647908531</v>
+        <v>26.24913426870378</v>
       </c>
       <c r="D3">
-        <v>1.228703406454293</v>
+        <v>4.283458271267025</v>
       </c>
       <c r="E3">
-        <v>2.331373450465976</v>
+        <v>2.777703371670982</v>
       </c>
       <c r="F3">
-        <v>0.9056488869805757</v>
+        <v>20.17290396508679</v>
       </c>
       <c r="G3">
-        <v>0.797724283043035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.7835096048022292</v>
+      </c>
+      <c r="H3">
+        <v>0.4503811284173302</v>
+      </c>
+      <c r="I3">
+        <v>6.306212312582124</v>
+      </c>
+      <c r="J3">
+        <v>1.149944146873102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.47556135995288</v>
+        <v>68.49707455770763</v>
       </c>
       <c r="C4">
-        <v>1.519199329598669</v>
+        <v>32.60665459597784</v>
       </c>
       <c r="D4">
-        <v>1.222178564353681</v>
+        <v>5.96216229244589</v>
       </c>
       <c r="E4">
-        <v>2.324836913131881</v>
+        <v>4.555413029132303</v>
       </c>
       <c r="F4">
-        <v>0.9300627835845845</v>
+        <v>25.5665033074532</v>
       </c>
       <c r="G4">
-        <v>0.7977016599519647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.7773577704906514</v>
+      </c>
+      <c r="H4">
+        <v>0.4468448985330937</v>
+      </c>
+      <c r="I4">
+        <v>6.274896954397216</v>
+      </c>
+      <c r="J4">
+        <v>1.149944146873074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.472117864358803</v>
+        <v>67.54216713333558</v>
       </c>
       <c r="C5">
-        <v>1.517393392849207</v>
+        <v>32.12953452700015</v>
       </c>
       <c r="D5">
-        <v>1.22266306074594</v>
+        <v>5.824733433452177</v>
       </c>
       <c r="E5">
-        <v>2.325322278643778</v>
+        <v>4.412049454517886</v>
       </c>
       <c r="F5">
-        <v>0.9280999754457848</v>
+        <v>25.1589772358729</v>
       </c>
       <c r="G5">
-        <v>0.7977033398116427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.777853832944609</v>
+      </c>
+      <c r="H5">
+        <v>0.4471300477724129</v>
+      </c>
+      <c r="I5">
+        <v>6.277422230468274</v>
+      </c>
+      <c r="J5">
+        <v>1.14994414687305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.551361449080413</v>
+        <v>84.41051646351229</v>
       </c>
       <c r="C6">
-        <v>1.541695774659285</v>
+        <v>36.55511792917159</v>
       </c>
       <c r="D6">
-        <v>1.216389229729084</v>
+        <v>8.965973687508354</v>
       </c>
       <c r="E6">
-        <v>2.316276323091706</v>
+        <v>5.961437916597272</v>
       </c>
       <c r="F6">
-        <v>0.9282619970809652</v>
+        <v>25.34250503282076</v>
       </c>
       <c r="G6">
-        <v>0.7976837905256807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.7736030984799971</v>
+      </c>
+      <c r="H6">
+        <v>0.4446866181409899</v>
+      </c>
+      <c r="I6">
+        <v>6.243241038315056</v>
+      </c>
+      <c r="J6">
+        <v>1.149944146873085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.486042987705061</v>
+        <v>65.47183368253839</v>
       </c>
       <c r="C7">
-        <v>1.500376588532253</v>
+        <v>24.23466513421332</v>
       </c>
       <c r="D7">
-        <v>1.229299539557882</v>
+        <v>9.344119964611657</v>
       </c>
       <c r="E7">
-        <v>2.325494167968956</v>
+        <v>2.96868389313269</v>
       </c>
       <c r="F7">
-        <v>0.8778133761142597</v>
+        <v>12.47224281168514</v>
       </c>
       <c r="G7">
-        <v>0.7977244974567471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.7849387362805987</v>
+      </c>
+      <c r="H7">
+        <v>0.451202629320257</v>
+      </c>
+      <c r="I7">
+        <v>6.288500523314516</v>
+      </c>
+      <c r="J7">
+        <v>1.149944146873053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.493706896653084</v>
+        <v>73.02552975502664</v>
       </c>
       <c r="C8">
-        <v>1.500749803442851</v>
+        <v>27.12795288889798</v>
       </c>
       <c r="D8">
-        <v>1.228387254190926</v>
+        <v>10.41918365906435</v>
       </c>
       <c r="E8">
-        <v>2.326373995729703</v>
+        <v>3.7964101385783</v>
       </c>
       <c r="F8">
-        <v>0.8827438400884016</v>
+        <v>14.13064810362879</v>
       </c>
       <c r="G8">
-        <v>0.7977129404240801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.7823866975177338</v>
+      </c>
+      <c r="H8">
+        <v>0.449735652922441</v>
+      </c>
+      <c r="I8">
+        <v>6.271151485484096</v>
+      </c>
+      <c r="J8">
+        <v>1.14994414687309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.452131316970398</v>
+        <v>68.9686893391445</v>
       </c>
       <c r="C9">
-        <v>1.485029393743831</v>
+        <v>25.96347621649717</v>
       </c>
       <c r="D9">
-        <v>1.232203599318915</v>
+        <v>9.465646058144545</v>
       </c>
       <c r="E9">
-        <v>2.333798141829541</v>
+        <v>3.369716702309471</v>
       </c>
       <c r="F9">
-        <v>0.882218834359998</v>
+        <v>13.94423508325681</v>
       </c>
       <c r="G9">
-        <v>0.797717690061021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.7835227558217152</v>
+      </c>
+      <c r="H9">
+        <v>0.4503886879559463</v>
+      </c>
+      <c r="I9">
+        <v>6.281237756575242</v>
+      </c>
+      <c r="J9">
+        <v>1.149944146873136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.498460893845921</v>
+        <v>85.74854442813339</v>
       </c>
       <c r="C10">
-        <v>1.510036919478703</v>
+        <v>35.62739320638374</v>
       </c>
       <c r="D10">
-        <v>1.224772570193231</v>
+        <v>9.81972218029072</v>
       </c>
       <c r="E10">
-        <v>2.32825497973902</v>
+        <v>5.822850683348136</v>
       </c>
       <c r="F10">
-        <v>0.9179998791031785</v>
+        <v>23.18723891626589</v>
       </c>
       <c r="G10">
-        <v>0.7976847553701254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.7745654955996175</v>
+      </c>
+      <c r="H10">
+        <v>0.4452398283354751</v>
+      </c>
+      <c r="I10">
+        <v>6.241607540748671</v>
+      </c>
+      <c r="J10">
+        <v>1.149944146873047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.499515683979133</v>
+        <v>91.09405052544849</v>
       </c>
       <c r="C11">
-        <v>1.509779381157926</v>
+        <v>38.10212998226476</v>
       </c>
       <c r="D11">
-        <v>1.225441405598574</v>
+        <v>10.48736769319917</v>
       </c>
       <c r="E11">
-        <v>2.330183123820964</v>
+        <v>6.627895153251403</v>
       </c>
       <c r="F11">
-        <v>0.9269103184005849</v>
+        <v>25.13281331549194</v>
       </c>
       <c r="G11">
-        <v>0.7976758189451917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.7718342904497734</v>
+      </c>
+      <c r="H11">
+        <v>0.443669862568855</v>
+      </c>
+      <c r="I11">
+        <v>6.226854024404316</v>
+      </c>
+      <c r="J11">
+        <v>1.149944146873079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.433742220278412</v>
+        <v>77.32665450459302</v>
       </c>
       <c r="C12">
-        <v>1.476712475551052</v>
+        <v>30.18163260982777</v>
       </c>
       <c r="D12">
-        <v>1.235852079198008</v>
+        <v>9.866314834336066</v>
       </c>
       <c r="E12">
-        <v>2.341690337211237</v>
+        <v>4.423675359300104</v>
       </c>
       <c r="F12">
-        <v>0.894592516387495</v>
+        <v>17.5516477970714</v>
       </c>
       <c r="G12">
-        <v>0.7977020836900257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.7798241155917258</v>
+      </c>
+      <c r="H12">
+        <v>0.4482626160480906</v>
+      </c>
+      <c r="I12">
+        <v>6.262668472805895</v>
+      </c>
+      <c r="J12">
+        <v>1.149944146873077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.34440236982215</v>
+        <v>63.90854362026177</v>
       </c>
       <c r="C13">
-        <v>1.438608287946496</v>
+        <v>22.90860582206831</v>
       </c>
       <c r="D13">
-        <v>1.254939112074197</v>
+        <v>9.586506038919115</v>
       </c>
       <c r="E13">
-        <v>2.364172332488131</v>
+        <v>2.769625666688182</v>
       </c>
       <c r="F13">
-        <v>0.8739337479436341</v>
+        <v>11.0579027948237</v>
       </c>
       <c r="G13">
-        <v>0.7977265707745216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.7857435306376097</v>
+      </c>
+      <c r="H13">
+        <v>0.4516652454624155</v>
+      </c>
+      <c r="I13">
+        <v>6.289893870760742</v>
+      </c>
+      <c r="J13">
+        <v>1.14994414687314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.350305340900343</v>
+        <v>75.45041994903391</v>
       </c>
       <c r="C14">
-        <v>1.435969222369915</v>
+        <v>25.95280513169667</v>
       </c>
       <c r="D14">
-        <v>1.257251886497258</v>
+        <v>12.42002674579249</v>
       </c>
       <c r="E14">
-        <v>2.370281214675295</v>
+        <v>3.999191304100398</v>
       </c>
       <c r="F14">
-        <v>0.8742915268780858</v>
+        <v>11.2451066472657</v>
       </c>
       <c r="G14">
-        <v>0.7977123288525267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.7825607584608083</v>
+      </c>
+      <c r="H14">
+        <v>0.4498357075527614</v>
+      </c>
+      <c r="I14">
+        <v>6.258687528200448</v>
+      </c>
+      <c r="J14">
+        <v>1.149944146873041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.279917622210061</v>
+        <v>61.09438853583662</v>
       </c>
       <c r="C15">
-        <v>1.415060468077136</v>
+        <v>21.75164133295727</v>
       </c>
       <c r="D15">
-        <v>1.281351494942231</v>
+        <v>9.165203300007517</v>
       </c>
       <c r="E15">
-        <v>2.392054305312016</v>
+        <v>2.485081043339023</v>
       </c>
       <c r="F15">
-        <v>0.8722874390409885</v>
+        <v>10.40239013110192</v>
       </c>
       <c r="G15">
-        <v>0.7977295012439535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.7866126481749034</v>
+      </c>
+      <c r="H15">
+        <v>0.4521648361949302</v>
+      </c>
+      <c r="I15">
+        <v>6.295551223073622</v>
+      </c>
+      <c r="J15">
+        <v>1.149944146873071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.26157185172928</v>
+        <v>47.24683822922588</v>
       </c>
       <c r="C16">
-        <v>1.41087011743576</v>
+        <v>16.5866347868613</v>
       </c>
       <c r="D16">
-        <v>1.286730718180852</v>
+        <v>7.16093784801414</v>
       </c>
       <c r="E16">
-        <v>2.394582208570177</v>
+        <v>1.201847055358582</v>
       </c>
       <c r="F16">
-        <v>0.8662446709575568</v>
+        <v>7.638408646966087</v>
       </c>
       <c r="G16">
-        <v>0.7977502288779694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.7904948597727618</v>
+      </c>
+      <c r="H16">
+        <v>0.45439642956575</v>
+      </c>
+      <c r="I16">
+        <v>6.323357994053066</v>
+      </c>
+      <c r="J16">
+        <v>1.149944146873133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.266470591555317</v>
+        <v>42.81329835923619</v>
       </c>
       <c r="C17">
-        <v>1.413114705342093</v>
+        <v>14.74321898823806</v>
       </c>
       <c r="D17">
-        <v>1.281602975029964</v>
+        <v>6.743930773040486</v>
       </c>
       <c r="E17">
-        <v>2.389190857275831</v>
+        <v>0.8295444245387621</v>
       </c>
       <c r="F17">
-        <v>0.8640490613975319</v>
+        <v>6.413375846634797</v>
       </c>
       <c r="G17">
-        <v>0.7977578129481966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.7916970689337733</v>
+      </c>
+      <c r="H17">
+        <v>0.4550874897841276</v>
+      </c>
+      <c r="I17">
+        <v>6.331016490813049</v>
+      </c>
+      <c r="J17">
+        <v>1.149944146873071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.377817715529821</v>
+        <v>81.16356102334868</v>
       </c>
       <c r="C18">
-        <v>1.455419795663179</v>
+        <v>33.54186215836808</v>
       </c>
       <c r="D18">
-        <v>1.252118570706418</v>
+        <v>9.144876411757306</v>
       </c>
       <c r="E18">
-        <v>2.359971885571277</v>
+        <v>5.17661029326354</v>
       </c>
       <c r="F18">
-        <v>0.9116155980144339</v>
+        <v>21.72944630890698</v>
       </c>
       <c r="G18">
-        <v>0.7976907102783206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.7766641643365713</v>
+      </c>
+      <c r="H18">
+        <v>0.4464461961809288</v>
+      </c>
+      <c r="I18">
+        <v>6.253191788850391</v>
+      </c>
+      <c r="J18">
+        <v>1.149944146873096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.662785728193687</v>
+        <v>144.5335174431049</v>
       </c>
       <c r="C19">
-        <v>1.567790840443991</v>
+        <v>60.43981588171793</v>
       </c>
       <c r="D19">
-        <v>1.212077514021729</v>
+        <v>20.17691900558487</v>
       </c>
       <c r="E19">
-        <v>2.320866528539055</v>
+        <v>16.20978268844944</v>
       </c>
       <c r="F19">
-        <v>1.004504608950543</v>
+        <v>40.63142136748277</v>
       </c>
       <c r="G19">
-        <v>0.7975995441469883</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.7403652004576036</v>
+      </c>
+      <c r="H19">
+        <v>0.4255806340843754</v>
+      </c>
+      <c r="I19">
+        <v>6.043877453714646</v>
+      </c>
+      <c r="J19">
+        <v>1.149944146873055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.024278697120049</v>
+        <v>190.7244142868299</v>
       </c>
       <c r="C20">
-        <v>1.678357666351631</v>
+        <v>72.93065076214945</v>
       </c>
       <c r="D20">
-        <v>1.197493669962094</v>
+        <v>31.87007674727868</v>
       </c>
       <c r="E20">
-        <v>2.282158090900616</v>
+        <v>25.04380873853955</v>
       </c>
       <c r="F20">
-        <v>0.998495065252397</v>
+        <v>41.26631347255865</v>
       </c>
       <c r="G20">
-        <v>0.7975571298497802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.7155564832221423</v>
+      </c>
+      <c r="H20">
+        <v>0.4113199562389558</v>
+      </c>
+      <c r="I20">
+        <v>5.833627871259941</v>
+      </c>
+      <c r="J20">
+        <v>1.149944146873053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.962131806805627</v>
+        <v>174.9513632210993</v>
       </c>
       <c r="C21">
-        <v>1.671861848992812</v>
+        <v>69.00590462302402</v>
       </c>
       <c r="D21">
-        <v>1.196089377507101</v>
+        <v>27.67352083055314</v>
       </c>
       <c r="E21">
-        <v>2.283816843671461</v>
+        <v>21.80087746200455</v>
       </c>
       <c r="F21">
-        <v>1.004310169352216</v>
+        <v>41.6728173967635</v>
       </c>
       <c r="G21">
-        <v>0.7975704113605691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.7244033823469017</v>
+      </c>
+      <c r="H21">
+        <v>0.4164053775104579</v>
+      </c>
+      <c r="I21">
+        <v>5.914903418871767</v>
+      </c>
+      <c r="J21">
+        <v>1.149944146873089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.869606860599765</v>
+        <v>155.7006366773176</v>
       </c>
       <c r="C22">
-        <v>1.663615776014769</v>
+        <v>65.57647572820406</v>
       </c>
       <c r="D22">
-        <v>1.193169857150079</v>
+        <v>22.68447883232776</v>
       </c>
       <c r="E22">
-        <v>2.287635215345983</v>
+        <v>18.90780977333805</v>
       </c>
       <c r="F22">
-        <v>1.025435938861678</v>
+        <v>44.75008770805151</v>
       </c>
       <c r="G22">
-        <v>0.7975852930966414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.7313343917909468</v>
+      </c>
+      <c r="H22">
+        <v>0.420389496958698</v>
+      </c>
+      <c r="I22">
+        <v>5.995072118588345</v>
+      </c>
+      <c r="J22">
+        <v>1.149944146873114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.803295981971162</v>
+        <v>138.6242002220738</v>
       </c>
       <c r="C23">
-        <v>1.651934364686344</v>
+        <v>60.70150324149567</v>
       </c>
       <c r="D23">
-        <v>1.194196270150784</v>
+        <v>18.84185527890186</v>
       </c>
       <c r="E23">
-        <v>2.29066476415197</v>
+        <v>16.05958346218004</v>
       </c>
       <c r="F23">
-        <v>1.024005731652019</v>
+        <v>43.89468124228564</v>
       </c>
       <c r="G23">
-        <v>0.79760293599601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.739706893395327</v>
+      </c>
+      <c r="H23">
+        <v>0.4252022225426826</v>
+      </c>
+      <c r="I23">
+        <v>6.057839634881313</v>
+      </c>
+      <c r="J23">
+        <v>1.149944146873097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.734180149207505</v>
+        <v>127.6247998503737</v>
       </c>
       <c r="C24">
-        <v>1.635529284371305</v>
+        <v>58.46094813939783</v>
       </c>
       <c r="D24">
-        <v>1.195921180889749</v>
+        <v>16.73491665937015</v>
       </c>
       <c r="E24">
-        <v>2.296190648472571</v>
+        <v>14.86410393744237</v>
       </c>
       <c r="F24">
-        <v>1.032770209106292</v>
+        <v>45.08939719414104</v>
       </c>
       <c r="G24">
-        <v>0.7976129033231534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.7427287675663549</v>
+      </c>
+      <c r="H24">
+        <v>0.4269392722111761</v>
+      </c>
+      <c r="I24">
+        <v>6.087192316300465</v>
+      </c>
+      <c r="J24">
+        <v>1.14994414687307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.672567990340841</v>
+        <v>115.6154642737266</v>
       </c>
       <c r="C25">
-        <v>1.613180962512366</v>
+        <v>54.19440084239854</v>
       </c>
       <c r="D25">
-        <v>1.200243091782122</v>
+        <v>14.36942388784678</v>
       </c>
       <c r="E25">
-        <v>2.30188112174686</v>
+        <v>12.81641394294217</v>
       </c>
       <c r="F25">
-        <v>1.021718215339648</v>
+        <v>42.84711421171974</v>
       </c>
       <c r="G25">
-        <v>0.7976277277202835</v>
+        <v>0.7492933854030807</v>
+      </c>
+      <c r="H25">
+        <v>0.4307127805010922</v>
+      </c>
+      <c r="I25">
+        <v>6.126582406855249</v>
+      </c>
+      <c r="J25">
+        <v>1.149944146873109</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3 - Timeseries powerflow/results/res_line/loading_percent.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,779 +394,629 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59.54231176127781</v>
+        <v>58.12853414841116</v>
       </c>
       <c r="C2">
-        <v>27.89339165630252</v>
+        <v>31.0849543759915</v>
       </c>
       <c r="D2">
-        <v>4.776121687444549</v>
+        <v>2.820182947963413</v>
       </c>
       <c r="E2">
-        <v>3.217035708278636</v>
+        <v>1.508559141550059</v>
       </c>
       <c r="F2">
-        <v>21.34996688903641</v>
+        <v>21.16136679754796</v>
       </c>
       <c r="G2">
-        <v>0.7820471345176667</v>
+        <v>0.7886882791138446</v>
       </c>
       <c r="H2">
-        <v>0.449540463525849</v>
-      </c>
-      <c r="I2">
-        <v>6.298172662126522</v>
-      </c>
-      <c r="J2">
-        <v>1.149944146873034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>58.36848321289408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55.77365438420539</v>
+        <v>61.7008176718519</v>
       </c>
       <c r="C3">
-        <v>26.24913426870378</v>
+        <v>32.63299017350008</v>
       </c>
       <c r="D3">
-        <v>4.283458271267025</v>
+        <v>2.642908003662706</v>
       </c>
       <c r="E3">
-        <v>2.777703371670982</v>
+        <v>1.471367158665439</v>
       </c>
       <c r="F3">
-        <v>20.17290396508679</v>
+        <v>20.03265396368328</v>
       </c>
       <c r="G3">
-        <v>0.7835096048022292</v>
+        <v>0.7887596656684774</v>
       </c>
       <c r="H3">
-        <v>0.4503811284173302</v>
-      </c>
-      <c r="I3">
-        <v>6.306212312582124</v>
-      </c>
-      <c r="J3">
-        <v>1.149944146873102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>58.3729301210909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68.49707455770763</v>
+        <v>49.7918889626924</v>
       </c>
       <c r="C4">
-        <v>32.60665459597784</v>
+        <v>26.69715542662204</v>
       </c>
       <c r="D4">
-        <v>5.96216229244589</v>
+        <v>2.738968704672053</v>
       </c>
       <c r="E4">
-        <v>4.555413029132303</v>
+        <v>1.591767724800872</v>
       </c>
       <c r="F4">
-        <v>25.5665033074532</v>
+        <v>25.18629372242867</v>
       </c>
       <c r="G4">
-        <v>0.7773577704906514</v>
+        <v>0.7883426523319297</v>
       </c>
       <c r="H4">
-        <v>0.4468448985330937</v>
-      </c>
-      <c r="I4">
-        <v>6.274896954397216</v>
-      </c>
-      <c r="J4">
-        <v>1.149944146873074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>58.3496149557745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67.54216713333558</v>
+        <v>50.67468801600272</v>
       </c>
       <c r="C5">
-        <v>32.12953452700015</v>
+        <v>27.13695362904921</v>
       </c>
       <c r="D5">
-        <v>5.824733433452177</v>
+        <v>2.73006682413875</v>
       </c>
       <c r="E5">
-        <v>4.412049454517886</v>
+        <v>1.580710261143669</v>
       </c>
       <c r="F5">
-        <v>25.1589772358729</v>
+        <v>24.8010705613997</v>
       </c>
       <c r="G5">
-        <v>0.777853832944609</v>
+        <v>0.7883809501421196</v>
       </c>
       <c r="H5">
-        <v>0.4471300477724129</v>
-      </c>
-      <c r="I5">
-        <v>6.277422230468274</v>
-      </c>
-      <c r="J5">
-        <v>1.14994414687305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>58.35148822398233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>84.41051646351229</v>
+        <v>34.95927122001453</v>
       </c>
       <c r="C6">
-        <v>36.55511792917159</v>
+        <v>23.12151472451231</v>
       </c>
       <c r="D6">
-        <v>8.965973687508354</v>
+        <v>6.070768623247556</v>
       </c>
       <c r="E6">
-        <v>5.961437916597272</v>
+        <v>1.929837238308023</v>
       </c>
       <c r="F6">
-        <v>25.34250503282076</v>
+        <v>24.84026876681522</v>
       </c>
       <c r="G6">
-        <v>0.7736030984799971</v>
+        <v>0.7882568934800009</v>
       </c>
       <c r="H6">
-        <v>0.4446866181409899</v>
-      </c>
-      <c r="I6">
-        <v>6.243241038315056</v>
-      </c>
-      <c r="J6">
-        <v>1.149944146873085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>58.34561685807365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65.47183368253839</v>
+        <v>52.37355227590255</v>
       </c>
       <c r="C7">
-        <v>24.23466513421332</v>
+        <v>34.6707089678789</v>
       </c>
       <c r="D7">
-        <v>9.344119964611657</v>
+        <v>8.82336979537042</v>
       </c>
       <c r="E7">
-        <v>2.96868389313269</v>
+        <v>2.000397621324366</v>
       </c>
       <c r="F7">
-        <v>12.47224281168514</v>
+        <v>12.40670990596149</v>
       </c>
       <c r="G7">
-        <v>0.7849387362805987</v>
+        <v>0.7890053195477867</v>
       </c>
       <c r="H7">
-        <v>0.451202629320257</v>
-      </c>
-      <c r="I7">
-        <v>6.288500523314516</v>
-      </c>
-      <c r="J7">
-        <v>1.149944146873053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>58.38967013720332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73.02552975502664</v>
+        <v>45.29285686407491</v>
       </c>
       <c r="C8">
-        <v>27.12795288889798</v>
+        <v>31.93907687319826</v>
       </c>
       <c r="D8">
-        <v>10.41918365906435</v>
+        <v>9.634275437648306</v>
       </c>
       <c r="E8">
-        <v>3.7964101385783</v>
+        <v>2.118015766126509</v>
       </c>
       <c r="F8">
-        <v>14.13064810362879</v>
+        <v>14.01118320167586</v>
       </c>
       <c r="G8">
-        <v>0.7823866975177338</v>
+        <v>0.7888991346426569</v>
       </c>
       <c r="H8">
-        <v>0.449735652922441</v>
-      </c>
-      <c r="I8">
-        <v>6.271151485484096</v>
-      </c>
-      <c r="J8">
-        <v>1.14994414687309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>58.38216093524656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68.9686893391445</v>
+        <v>49.08351937202757</v>
       </c>
       <c r="C9">
-        <v>25.96347621649717</v>
+        <v>33.02276340798287</v>
       </c>
       <c r="D9">
-        <v>9.465646058144545</v>
+        <v>8.768448348721824</v>
       </c>
       <c r="E9">
-        <v>3.369716702309471</v>
+        <v>2.007048419761889</v>
       </c>
       <c r="F9">
-        <v>13.94423508325681</v>
+        <v>13.84603208279772</v>
       </c>
       <c r="G9">
-        <v>0.7835227558217152</v>
+        <v>0.7889508775335761</v>
       </c>
       <c r="H9">
-        <v>0.4503886879559463</v>
-      </c>
-      <c r="I9">
-        <v>6.281237756575242</v>
-      </c>
-      <c r="J9">
-        <v>1.149944146873136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>58.38576813132354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85.74854442813339</v>
+        <v>33.65953220420359</v>
       </c>
       <c r="C10">
-        <v>35.62739320638374</v>
+        <v>23.98870671986435</v>
       </c>
       <c r="D10">
-        <v>9.81972218029072</v>
+        <v>7.484959105671074</v>
       </c>
       <c r="E10">
-        <v>5.822850683348136</v>
+        <v>2.031226016715772</v>
       </c>
       <c r="F10">
-        <v>23.18723891626589</v>
+        <v>22.75793920968753</v>
       </c>
       <c r="G10">
-        <v>0.7745654955996175</v>
+        <v>0.7883820863396794</v>
       </c>
       <c r="H10">
-        <v>0.4452398283354751</v>
-      </c>
-      <c r="I10">
-        <v>6.241607540748671</v>
-      </c>
-      <c r="J10">
-        <v>1.149944146873047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>58.35154462702418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>91.09405052544849</v>
+        <v>28.86753939595128</v>
       </c>
       <c r="C11">
-        <v>38.10212998226476</v>
+        <v>21.74697662742428</v>
       </c>
       <c r="D11">
-        <v>10.48736769319917</v>
+        <v>7.645588262986572</v>
       </c>
       <c r="E11">
-        <v>6.627895153251403</v>
+        <v>2.108010442779809</v>
       </c>
       <c r="F11">
-        <v>25.13281331549194</v>
+        <v>24.57823822388885</v>
       </c>
       <c r="G11">
-        <v>0.7718342904497734</v>
+        <v>0.7881641635643372</v>
       </c>
       <c r="H11">
-        <v>0.443669862568855</v>
-      </c>
-      <c r="I11">
-        <v>6.226854024404316</v>
-      </c>
-      <c r="J11">
-        <v>1.149944146873079</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>58.34159974053382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77.32665450459302</v>
+        <v>41.30845081920172</v>
       </c>
       <c r="C12">
-        <v>30.18163260982777</v>
+        <v>29.04505875302972</v>
       </c>
       <c r="D12">
-        <v>9.866314834336066</v>
+        <v>8.638437041655397</v>
       </c>
       <c r="E12">
-        <v>4.423675359300104</v>
+        <v>2.044901288307382</v>
       </c>
       <c r="F12">
-        <v>17.5516477970714</v>
+        <v>17.34580120393245</v>
       </c>
       <c r="G12">
-        <v>0.7798241155917258</v>
+        <v>0.7887623897281888</v>
       </c>
       <c r="H12">
-        <v>0.4482626160480906</v>
-      </c>
-      <c r="I12">
-        <v>6.262668472805895</v>
-      </c>
-      <c r="J12">
-        <v>1.149944146873077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>58.37310353891988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63.90854362026177</v>
+        <v>53.86014934277176</v>
       </c>
       <c r="C13">
-        <v>22.90860582206831</v>
+        <v>35.95547935184075</v>
       </c>
       <c r="D13">
-        <v>9.586506038919115</v>
+        <v>9.180613445821791</v>
       </c>
       <c r="E13">
-        <v>2.769625666688182</v>
+        <v>2.039325470308431</v>
       </c>
       <c r="F13">
-        <v>11.0579027948237</v>
+        <v>11.01159367065078</v>
       </c>
       <c r="G13">
-        <v>0.7857435306376097</v>
+        <v>0.7889967149560563</v>
       </c>
       <c r="H13">
-        <v>0.4516652454624155</v>
-      </c>
-      <c r="I13">
-        <v>6.289893870760742</v>
-      </c>
-      <c r="J13">
-        <v>1.14994414687314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>58.38904614787268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75.45041994903391</v>
+        <v>43.09327322636365</v>
       </c>
       <c r="C14">
-        <v>25.95280513169667</v>
+        <v>33.11925205145788</v>
       </c>
       <c r="D14">
-        <v>12.42002674579249</v>
+        <v>11.79010628566877</v>
       </c>
       <c r="E14">
-        <v>3.999191304100398</v>
+        <v>2.395859513459687</v>
       </c>
       <c r="F14">
-        <v>11.2451066472657</v>
+        <v>11.15441781208715</v>
       </c>
       <c r="G14">
-        <v>0.7825607584608083</v>
+        <v>0.7888212936909771</v>
       </c>
       <c r="H14">
-        <v>0.4498357075527614</v>
-      </c>
-      <c r="I14">
-        <v>6.258687528200448</v>
-      </c>
-      <c r="J14">
-        <v>1.149944146873041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>58.37692046285849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>61.09438853583662</v>
+        <v>56.52916219375863</v>
       </c>
       <c r="C15">
-        <v>21.75164133295727</v>
+        <v>37.06323452942266</v>
       </c>
       <c r="D15">
-        <v>9.165203300007517</v>
+        <v>8.843112765294654</v>
       </c>
       <c r="E15">
-        <v>2.485081043339023</v>
+        <v>2.005834418705742</v>
       </c>
       <c r="F15">
-        <v>10.40239013110192</v>
+        <v>10.37038283700022</v>
       </c>
       <c r="G15">
-        <v>0.7866126481749034</v>
+        <v>0.7890067920247036</v>
       </c>
       <c r="H15">
-        <v>0.4521648361949302</v>
-      </c>
-      <c r="I15">
-        <v>6.295551223073622</v>
-      </c>
-      <c r="J15">
-        <v>1.149944146873071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>58.38977719222284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>47.24683822922588</v>
+        <v>69.8114106541065</v>
       </c>
       <c r="C16">
-        <v>16.5866347868613</v>
+        <v>42.04970691320112</v>
       </c>
       <c r="D16">
-        <v>7.16093784801414</v>
+        <v>7.188627100505836</v>
       </c>
       <c r="E16">
-        <v>1.201847055358582</v>
+        <v>1.823913922750011</v>
       </c>
       <c r="F16">
-        <v>7.638408646966087</v>
+        <v>7.652285641788905</v>
       </c>
       <c r="G16">
-        <v>0.7904948597727618</v>
+        <v>0.7890359472716814</v>
       </c>
       <c r="H16">
-        <v>0.45439642956575</v>
-      </c>
-      <c r="I16">
-        <v>6.323357994053066</v>
-      </c>
-      <c r="J16">
-        <v>1.149944146873133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>58.39191336536107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>42.81329835923619</v>
+        <v>74.12128757830267</v>
       </c>
       <c r="C17">
-        <v>14.74321898823806</v>
+        <v>43.85865561568654</v>
       </c>
       <c r="D17">
-        <v>6.743930773040486</v>
+        <v>6.876525942645206</v>
       </c>
       <c r="E17">
-        <v>0.8295444245387621</v>
+        <v>1.797956582534733</v>
       </c>
       <c r="F17">
-        <v>6.413375846634797</v>
+        <v>6.434550485623257</v>
       </c>
       <c r="G17">
-        <v>0.7916970689337733</v>
+        <v>0.789009554640542</v>
       </c>
       <c r="H17">
-        <v>0.4550874897841276</v>
-      </c>
-      <c r="I17">
-        <v>6.331016490813049</v>
-      </c>
-      <c r="J17">
-        <v>1.149944146873071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>58.38997826134508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81.16356102334868</v>
+        <v>37.83058481236068</v>
       </c>
       <c r="C18">
-        <v>33.54186215836808</v>
+        <v>25.89889105254288</v>
       </c>
       <c r="D18">
-        <v>9.144876411757306</v>
+        <v>7.157180714600697</v>
       </c>
       <c r="E18">
-        <v>5.17661029326354</v>
+        <v>1.959561182611384</v>
       </c>
       <c r="F18">
-        <v>21.72944630890698</v>
+        <v>21.38621687001616</v>
       </c>
       <c r="G18">
-        <v>0.7766641643365713</v>
+        <v>0.7885212963609705</v>
       </c>
       <c r="H18">
-        <v>0.4464461961809288</v>
-      </c>
-      <c r="I18">
-        <v>6.253191788850391</v>
-      </c>
-      <c r="J18">
-        <v>1.149944146873096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>58.35881630957006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>144.5335174431049</v>
+        <v>17.65837304986873</v>
       </c>
       <c r="C19">
-        <v>60.43981588171793</v>
+        <v>3.121404721366571</v>
       </c>
       <c r="D19">
-        <v>20.17691900558487</v>
+        <v>11.57635962283909</v>
       </c>
       <c r="E19">
-        <v>16.20978268844944</v>
+        <v>3.357005577099249</v>
       </c>
       <c r="F19">
-        <v>40.63142136748277</v>
+        <v>37.94064236185334</v>
       </c>
       <c r="G19">
-        <v>0.7403652004576036</v>
+        <v>0.785290126062607</v>
       </c>
       <c r="H19">
-        <v>0.4255806340843754</v>
-      </c>
-      <c r="I19">
-        <v>6.043877453714646</v>
-      </c>
-      <c r="J19">
-        <v>1.149944146873055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>58.38241212124192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>190.7244142868299</v>
+        <v>53.49573262670027</v>
       </c>
       <c r="C20">
-        <v>72.93065076214945</v>
+        <v>6.388872123286897</v>
       </c>
       <c r="D20">
-        <v>31.87007674727868</v>
+        <v>20.91810945031503</v>
       </c>
       <c r="E20">
-        <v>25.04380873853955</v>
+        <v>5.355993164894677</v>
       </c>
       <c r="F20">
-        <v>41.26631347255865</v>
+        <v>37.13357245087286</v>
       </c>
       <c r="G20">
-        <v>0.7155564832221423</v>
+        <v>0.7831563211540761</v>
       </c>
       <c r="H20">
-        <v>0.4113199562389558</v>
-      </c>
-      <c r="I20">
-        <v>5.833627871259941</v>
-      </c>
-      <c r="J20">
-        <v>1.149944146873053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>58.62251692154565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>174.9513632210993</v>
+        <v>41.65273548971685</v>
       </c>
       <c r="C21">
-        <v>69.00590462302402</v>
+        <v>3.733616828169951</v>
       </c>
       <c r="D21">
-        <v>27.67352083055314</v>
+        <v>17.55447087600539</v>
       </c>
       <c r="E21">
-        <v>21.80087746200455</v>
+        <v>4.578456334027365</v>
       </c>
       <c r="F21">
-        <v>41.6728173967635</v>
+        <v>37.98880693016467</v>
       </c>
       <c r="G21">
-        <v>0.7244033823469017</v>
+        <v>0.783928737990441</v>
       </c>
       <c r="H21">
-        <v>0.4164053775104579</v>
-      </c>
-      <c r="I21">
-        <v>5.914903418871767</v>
-      </c>
-      <c r="J21">
-        <v>1.149944146873089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>58.51631887672129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>155.7006366773176</v>
+        <v>25.9533357482306</v>
       </c>
       <c r="C22">
-        <v>65.57647572820406</v>
+        <v>1.817390899372941</v>
       </c>
       <c r="D22">
-        <v>22.68447883232776</v>
+        <v>12.09081889528187</v>
       </c>
       <c r="E22">
-        <v>18.90780977333805</v>
+        <v>3.659255663797235</v>
       </c>
       <c r="F22">
-        <v>44.75008770805151</v>
+        <v>41.14230371727502</v>
       </c>
       <c r="G22">
-        <v>0.7313343917909468</v>
+        <v>0.7844471633300398</v>
       </c>
       <c r="H22">
-        <v>0.420389496958698</v>
-      </c>
-      <c r="I22">
-        <v>5.995072118588345</v>
-      </c>
-      <c r="J22">
-        <v>1.149944146873114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>58.45729296721301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>138.6242002220738</v>
+        <v>12.27040767396368</v>
       </c>
       <c r="C23">
-        <v>60.70150324149567</v>
+        <v>3.128575850960279</v>
       </c>
       <c r="D23">
-        <v>18.84185527890186</v>
+        <v>8.870981954496411</v>
       </c>
       <c r="E23">
-        <v>16.05958346218004</v>
+        <v>3.092438932029347</v>
       </c>
       <c r="F23">
-        <v>43.89468124228564</v>
+        <v>40.88822011297713</v>
       </c>
       <c r="G23">
-        <v>0.739706893395327</v>
+        <v>0.7851127936468326</v>
       </c>
       <c r="H23">
-        <v>0.4252022225426826</v>
-      </c>
-      <c r="I23">
-        <v>6.057839634881313</v>
-      </c>
-      <c r="J23">
-        <v>1.149944146873097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>58.39599069194262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>127.6247998503737</v>
+        <v>4.214298050140716</v>
       </c>
       <c r="C24">
-        <v>58.46094813939783</v>
+        <v>4.818721164250337</v>
       </c>
       <c r="D24">
-        <v>16.73491665937015</v>
+        <v>6.071112490206427</v>
       </c>
       <c r="E24">
-        <v>14.86410393744237</v>
+        <v>2.7638106560983</v>
       </c>
       <c r="F24">
-        <v>45.08939719414104</v>
+        <v>42.17213183084535</v>
       </c>
       <c r="G24">
-        <v>0.7427287675663549</v>
+        <v>0.785232204541285</v>
       </c>
       <c r="H24">
-        <v>0.4269392722111761</v>
-      </c>
-      <c r="I24">
-        <v>6.087192316300465</v>
-      </c>
-      <c r="J24">
-        <v>1.14994414687307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>58.38671972142865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115.6154642737266</v>
+        <v>8.891878898673108</v>
       </c>
       <c r="C25">
-        <v>54.19440084239854</v>
+        <v>8.062062557631327</v>
       </c>
       <c r="D25">
-        <v>14.36942388784678</v>
+        <v>4.618846171392148</v>
       </c>
       <c r="E25">
-        <v>12.81641394294217</v>
+        <v>2.46792777419114</v>
       </c>
       <c r="F25">
-        <v>42.84711421171974</v>
+        <v>40.50599748043339</v>
       </c>
       <c r="G25">
-        <v>0.7492933854030807</v>
+        <v>0.7857844941887376</v>
       </c>
       <c r="H25">
-        <v>0.4307127805010922</v>
-      </c>
-      <c r="I25">
-        <v>6.126582406855249</v>
-      </c>
-      <c r="J25">
-        <v>1.149944146873109</v>
+        <v>58.35068439843518</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3 - Timeseries powerflow/results/res_line/loading_percent.xlsx
+++ b/Lab3 - Timeseries powerflow/results/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -391,143 +391,632 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>58.12853414841116</v>
+      </c>
+      <c r="C2">
+        <v>31.0849543759915</v>
+      </c>
+      <c r="D2">
+        <v>2.820182947963413</v>
+      </c>
+      <c r="E2">
+        <v>1.508559141550059</v>
+      </c>
+      <c r="F2">
+        <v>21.16136679754796</v>
+      </c>
+      <c r="G2">
+        <v>0.7886882791138446</v>
+      </c>
+      <c r="H2">
+        <v>58.36848321289408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>169.4249401429056</v>
-      </c>
-      <c r="C2">
-        <v>70.08163853500736</v>
-      </c>
-      <c r="D2">
-        <v>24.58336301701425</v>
-      </c>
-      <c r="E2">
-        <v>25.31436973112082</v>
-      </c>
-      <c r="F2">
-        <v>48.65636694563251</v>
-      </c>
-      <c r="G2">
-        <v>0.7153676533705805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="B3">
+        <v>61.7008176718519</v>
+      </c>
+      <c r="C3">
+        <v>32.63299017350008</v>
+      </c>
+      <c r="D3">
+        <v>2.642908003662706</v>
+      </c>
+      <c r="E3">
+        <v>1.471367158665439</v>
+      </c>
+      <c r="F3">
+        <v>20.03265396368328</v>
+      </c>
+      <c r="G3">
+        <v>0.7887596656684774</v>
+      </c>
+      <c r="H3">
+        <v>58.3729301210909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>113.3822998027215</v>
-      </c>
-      <c r="C3">
-        <v>36.12975278257131</v>
-      </c>
-      <c r="D3">
-        <v>19.67374889623282</v>
-      </c>
-      <c r="E3">
-        <v>40.83681606399544</v>
-      </c>
-      <c r="F3">
-        <v>46.89761521573116</v>
-      </c>
-      <c r="G3">
-        <v>0.7363262600144933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="B4">
+        <v>49.7918889626924</v>
+      </c>
+      <c r="C4">
+        <v>26.69715542662204</v>
+      </c>
+      <c r="D4">
+        <v>2.738968704672053</v>
+      </c>
+      <c r="E4">
+        <v>1.591767724800872</v>
+      </c>
+      <c r="F4">
+        <v>25.18629372242867</v>
+      </c>
+      <c r="G4">
+        <v>0.7883426523319297</v>
+      </c>
+      <c r="H4">
+        <v>58.3496149557745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>73.71274604068024</v>
-      </c>
-      <c r="C4">
-        <v>19.81344069196876</v>
-      </c>
-      <c r="D4">
-        <v>34.9662140994535</v>
-      </c>
-      <c r="E4">
-        <v>56.78514943103078</v>
-      </c>
-      <c r="F4">
-        <v>46.68603337868134</v>
-      </c>
-      <c r="G4">
-        <v>0.7389885912581018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="B5">
+        <v>50.67468801600272</v>
+      </c>
+      <c r="C5">
+        <v>27.13695362904921</v>
+      </c>
+      <c r="D5">
+        <v>2.73006682413875</v>
+      </c>
+      <c r="E5">
+        <v>1.580710261143669</v>
+      </c>
+      <c r="F5">
+        <v>24.8010705613997</v>
+      </c>
+      <c r="G5">
+        <v>0.7883809501421196</v>
+      </c>
+      <c r="H5">
+        <v>58.35148822398233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>81.27585178011381</v>
-      </c>
-      <c r="C5">
-        <v>20.77055365205458</v>
-      </c>
-      <c r="D5">
-        <v>33.90265327535312</v>
-      </c>
-      <c r="E5">
-        <v>55.73528497252622</v>
-      </c>
-      <c r="F5">
-        <v>46.78061773543407</v>
-      </c>
-      <c r="G5">
-        <v>0.7377945621904023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="B6">
+        <v>34.95927122001453</v>
+      </c>
+      <c r="C6">
+        <v>23.12151472451231</v>
+      </c>
+      <c r="D6">
+        <v>6.070768623247556</v>
+      </c>
+      <c r="E6">
+        <v>1.929837238308023</v>
+      </c>
+      <c r="F6">
+        <v>24.84026876681522</v>
+      </c>
+      <c r="G6">
+        <v>0.7882568934800009</v>
+      </c>
+      <c r="H6">
+        <v>58.34561685807365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>119.0419469620904</v>
-      </c>
-      <c r="C6">
-        <v>38.01696766492886</v>
-      </c>
-      <c r="D6">
-        <v>18.46884128749429</v>
-      </c>
-      <c r="E6">
-        <v>39.36778490943688</v>
-      </c>
-      <c r="F6">
-        <v>46.99341785336177</v>
-      </c>
-      <c r="G6">
-        <v>0.7351310480618791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="B7">
+        <v>52.37355227590255</v>
+      </c>
+      <c r="C7">
+        <v>34.6707089678789</v>
+      </c>
+      <c r="D7">
+        <v>8.82336979537042</v>
+      </c>
+      <c r="E7">
+        <v>2.000397621324366</v>
+      </c>
+      <c r="F7">
+        <v>12.40670990596149</v>
+      </c>
+      <c r="G7">
+        <v>0.7890053195477867</v>
+      </c>
+      <c r="H7">
+        <v>58.38967013720332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>160.9610662497861</v>
-      </c>
-      <c r="C7">
-        <v>65.49391547006117</v>
-      </c>
-      <c r="D7">
-        <v>20.94438718535071</v>
-      </c>
-      <c r="E7">
-        <v>25.03295194085991</v>
-      </c>
-      <c r="F7">
-        <v>48.23729713688211</v>
-      </c>
-      <c r="G7">
-        <v>0.7201772089855707</v>
+      <c r="B8">
+        <v>45.29285686407491</v>
+      </c>
+      <c r="C8">
+        <v>31.93907687319826</v>
+      </c>
+      <c r="D8">
+        <v>9.634275437648306</v>
+      </c>
+      <c r="E8">
+        <v>2.118015766126509</v>
+      </c>
+      <c r="F8">
+        <v>14.01118320167586</v>
+      </c>
+      <c r="G8">
+        <v>0.7888991346426569</v>
+      </c>
+      <c r="H8">
+        <v>58.38216093524656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>49.08351937202757</v>
+      </c>
+      <c r="C9">
+        <v>33.02276340798287</v>
+      </c>
+      <c r="D9">
+        <v>8.768448348721824</v>
+      </c>
+      <c r="E9">
+        <v>2.007048419761889</v>
+      </c>
+      <c r="F9">
+        <v>13.84603208279772</v>
+      </c>
+      <c r="G9">
+        <v>0.7889508775335761</v>
+      </c>
+      <c r="H9">
+        <v>58.38576813132354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>33.65953220420359</v>
+      </c>
+      <c r="C10">
+        <v>23.98870671986435</v>
+      </c>
+      <c r="D10">
+        <v>7.484959105671074</v>
+      </c>
+      <c r="E10">
+        <v>2.031226016715772</v>
+      </c>
+      <c r="F10">
+        <v>22.75793920968753</v>
+      </c>
+      <c r="G10">
+        <v>0.7883820863396794</v>
+      </c>
+      <c r="H10">
+        <v>58.35154462702418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>28.86753939595128</v>
+      </c>
+      <c r="C11">
+        <v>21.74697662742428</v>
+      </c>
+      <c r="D11">
+        <v>7.645588262986572</v>
+      </c>
+      <c r="E11">
+        <v>2.108010442779809</v>
+      </c>
+      <c r="F11">
+        <v>24.57823822388885</v>
+      </c>
+      <c r="G11">
+        <v>0.7881641635643372</v>
+      </c>
+      <c r="H11">
+        <v>58.34159974053382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>41.30845081920172</v>
+      </c>
+      <c r="C12">
+        <v>29.04505875302972</v>
+      </c>
+      <c r="D12">
+        <v>8.638437041655397</v>
+      </c>
+      <c r="E12">
+        <v>2.044901288307382</v>
+      </c>
+      <c r="F12">
+        <v>17.34580120393245</v>
+      </c>
+      <c r="G12">
+        <v>0.7887623897281888</v>
+      </c>
+      <c r="H12">
+        <v>58.37310353891988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>53.86014934277176</v>
+      </c>
+      <c r="C13">
+        <v>35.95547935184075</v>
+      </c>
+      <c r="D13">
+        <v>9.180613445821791</v>
+      </c>
+      <c r="E13">
+        <v>2.039325470308431</v>
+      </c>
+      <c r="F13">
+        <v>11.01159367065078</v>
+      </c>
+      <c r="G13">
+        <v>0.7889967149560563</v>
+      </c>
+      <c r="H13">
+        <v>58.38904614787268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>43.09327322636365</v>
+      </c>
+      <c r="C14">
+        <v>33.11925205145788</v>
+      </c>
+      <c r="D14">
+        <v>11.79010628566877</v>
+      </c>
+      <c r="E14">
+        <v>2.395859513459687</v>
+      </c>
+      <c r="F14">
+        <v>11.15441781208715</v>
+      </c>
+      <c r="G14">
+        <v>0.7888212936909771</v>
+      </c>
+      <c r="H14">
+        <v>58.37692046285849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>56.52916219375863</v>
+      </c>
+      <c r="C15">
+        <v>37.06323452942266</v>
+      </c>
+      <c r="D15">
+        <v>8.843112765294654</v>
+      </c>
+      <c r="E15">
+        <v>2.005834418705742</v>
+      </c>
+      <c r="F15">
+        <v>10.37038283700022</v>
+      </c>
+      <c r="G15">
+        <v>0.7890067920247036</v>
+      </c>
+      <c r="H15">
+        <v>58.38977719222284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>69.8114106541065</v>
+      </c>
+      <c r="C16">
+        <v>42.04970691320112</v>
+      </c>
+      <c r="D16">
+        <v>7.188627100505836</v>
+      </c>
+      <c r="E16">
+        <v>1.823913922750011</v>
+      </c>
+      <c r="F16">
+        <v>7.652285641788905</v>
+      </c>
+      <c r="G16">
+        <v>0.7890359472716814</v>
+      </c>
+      <c r="H16">
+        <v>58.39191336536107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>74.12128757830267</v>
+      </c>
+      <c r="C17">
+        <v>43.85865561568654</v>
+      </c>
+      <c r="D17">
+        <v>6.876525942645206</v>
+      </c>
+      <c r="E17">
+        <v>1.797956582534733</v>
+      </c>
+      <c r="F17">
+        <v>6.434550485623257</v>
+      </c>
+      <c r="G17">
+        <v>0.789009554640542</v>
+      </c>
+      <c r="H17">
+        <v>58.38997826134508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>37.83058481236068</v>
+      </c>
+      <c r="C18">
+        <v>25.89889105254288</v>
+      </c>
+      <c r="D18">
+        <v>7.157180714600697</v>
+      </c>
+      <c r="E18">
+        <v>1.959561182611384</v>
+      </c>
+      <c r="F18">
+        <v>21.38621687001616</v>
+      </c>
+      <c r="G18">
+        <v>0.7885212963609705</v>
+      </c>
+      <c r="H18">
+        <v>58.35881630957006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17.65837304986873</v>
+      </c>
+      <c r="C19">
+        <v>3.121404721366571</v>
+      </c>
+      <c r="D19">
+        <v>11.57635962283909</v>
+      </c>
+      <c r="E19">
+        <v>3.357005577099249</v>
+      </c>
+      <c r="F19">
+        <v>37.94064236185334</v>
+      </c>
+      <c r="G19">
+        <v>0.785290126062607</v>
+      </c>
+      <c r="H19">
+        <v>58.38241212124192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>53.49573262670027</v>
+      </c>
+      <c r="C20">
+        <v>6.388872123286897</v>
+      </c>
+      <c r="D20">
+        <v>20.91810945031503</v>
+      </c>
+      <c r="E20">
+        <v>5.355993164894677</v>
+      </c>
+      <c r="F20">
+        <v>37.13357245087286</v>
+      </c>
+      <c r="G20">
+        <v>0.7831563211540761</v>
+      </c>
+      <c r="H20">
+        <v>58.62251692154565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>41.65273548971685</v>
+      </c>
+      <c r="C21">
+        <v>3.733616828169951</v>
+      </c>
+      <c r="D21">
+        <v>17.55447087600539</v>
+      </c>
+      <c r="E21">
+        <v>4.578456334027365</v>
+      </c>
+      <c r="F21">
+        <v>37.98880693016467</v>
+      </c>
+      <c r="G21">
+        <v>0.783928737990441</v>
+      </c>
+      <c r="H21">
+        <v>58.51631887672129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>25.9533357482306</v>
+      </c>
+      <c r="C22">
+        <v>1.817390899372941</v>
+      </c>
+      <c r="D22">
+        <v>12.09081889528187</v>
+      </c>
+      <c r="E22">
+        <v>3.659255663797235</v>
+      </c>
+      <c r="F22">
+        <v>41.14230371727502</v>
+      </c>
+      <c r="G22">
+        <v>0.7844471633300398</v>
+      </c>
+      <c r="H22">
+        <v>58.45729296721301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>12.27040767396368</v>
+      </c>
+      <c r="C23">
+        <v>3.128575850960279</v>
+      </c>
+      <c r="D23">
+        <v>8.870981954496411</v>
+      </c>
+      <c r="E23">
+        <v>3.092438932029347</v>
+      </c>
+      <c r="F23">
+        <v>40.88822011297713</v>
+      </c>
+      <c r="G23">
+        <v>0.7851127936468326</v>
+      </c>
+      <c r="H23">
+        <v>58.39599069194262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4.214298050140716</v>
+      </c>
+      <c r="C24">
+        <v>4.818721164250337</v>
+      </c>
+      <c r="D24">
+        <v>6.071112490206427</v>
+      </c>
+      <c r="E24">
+        <v>2.7638106560983</v>
+      </c>
+      <c r="F24">
+        <v>42.17213183084535</v>
+      </c>
+      <c r="G24">
+        <v>0.785232204541285</v>
+      </c>
+      <c r="H24">
+        <v>58.38671972142865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>8.891878898673108</v>
+      </c>
+      <c r="C25">
+        <v>8.062062557631327</v>
+      </c>
+      <c r="D25">
+        <v>4.618846171392148</v>
+      </c>
+      <c r="E25">
+        <v>2.46792777419114</v>
+      </c>
+      <c r="F25">
+        <v>40.50599748043339</v>
+      </c>
+      <c r="G25">
+        <v>0.7857844941887376</v>
+      </c>
+      <c r="H25">
+        <v>58.35068439843518</v>
       </c>
     </row>
   </sheetData>
